--- a/biology/Zoologie/Isothrix_bistriata/Isothrix_bistriata.xlsx
+++ b/biology/Zoologie/Isothrix_bistriata/Isothrix_bistriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isothrix bistriata est une espèce de rongeurs de la famille des Echimyidae. C'est un « rat épineux » d'Amérique latine.
 Cette espèce a été décrite pour la première fois en 1845 par le zoologiste et archéologue allemand Johann Andreas Wagner (1797-1861).  
@@ -512,10 +524,12 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2005, Louise Emmons révise la taxinomie du genre Isothrix et considère orinoci - traditionnellement traité comme une sous-espèce de I.bistriata (Isothrix bistriata orinoci) - comme suffisamment différencié pour mériter le statut d'espèce à part entière : Isothrix orinoci[1].
-Selon Mammal Species of the World (version 3, 2005)  (21 novembre 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2005, Louise Emmons révise la taxinomie du genre Isothrix et considère orinoci - traditionnellement traité comme une sous-espèce de I.bistriata (Isothrix bistriata orinoci) - comme suffisamment différencié pour mériter le statut d'espèce à part entière : Isothrix orinoci.
+Selon Mammal Species of the World (version 3, 2005)  (21 novembre 2013) :
 sous-espèce Isothrix bistriata bistriata
 sous-espèce Isothrix bistriata orinoci - synonyme de l'espèce Isothrix orinoci</t>
         </is>
